--- a/biology/Zoologie/Azuré_du_baguenaudier/Azuré_du_baguenaudier.xlsx
+++ b/biology/Zoologie/Azuré_du_baguenaudier/Azuré_du_baguenaudier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_baguenaudier</t>
+          <t>Azuré_du_baguenaudier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iolana iolas
 L’Azuré du baguenaudier, Argus du Baguenaudier ou Argus géant (Iolana iolas) est un lépidoptère (papillon) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Iolana.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_baguenaudier</t>
+          <t>Azuré_du_baguenaudier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Iolana iolas (Ferdinand Ochsenheimer, 1816)
-Synonymie : Glaucopsyche iolas (Ochsenheimer, 1816), Lycaena iolas (Ochsenheimer, 1816)[1],[2].
-Noms vernaculaires
-L'Azuré du baguenaudier, Argus du Baguenaudier ou Argus géant se nomme en anglais «Iolas Blue» et en espagnol «Espantalobos».
-Sous-espèces
- Iolana iolas lessei (Bernardi, 1964) présent en Arménie.
- Iolana iolas debilitata (Schultz, 1905) ou Iolana debilitata (Schultz, 1905) l'Azuré d'Oranie présent au Maroc et en Algérie[2].
-et autres
-L’azuré d'Oranie  est parfois considéré comme une espèce Iolana debilitata parfois comme Iolana iolas debilitata une sous-espèce.
+Synonymie : Glaucopsyche iolas (Ochsenheimer, 1816), Lycaena iolas (Ochsenheimer, 1816),.
 </t>
         </is>
       </c>
@@ -533,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_baguenaudier</t>
+          <t>Azuré_du_baguenaudier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon qui présente un dimorphisme sexuel : le dessus du mâle est bleu violet, celui de la femelle est plus foncé marron gris suffusé de bleu.
-Le revers est clair, gris clair à beige clair un peu suffusé de bleu, les ailes sont ornées d'une ligne de points noirs et d'une ligne submarginale de petites taches blanches.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azuré du baguenaudier, Argus du Baguenaudier ou Argus géant se nomme en anglais «Iolas Blue» et en espagnol «Espantalobos».
 </t>
         </is>
       </c>
@@ -565,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_baguenaudier</t>
+          <t>Azuré_du_baguenaudier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,17 +592,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les œufs sont pondus dans la gousse du baguenaudier et c'est dans cette gousse que se développe la larve[3].
-Période de vol et hivernation
-Il vole en une génération de mai à juillet.
-La larve est soignée par les fourmis Camponotus cruentatus, Tapinoma erraticum et autres.
-Plantes hôtes
-Ses plantes hôtes sont des Colutea  : Colutea cilicica et Colutea arborescens[2],[3].
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iolana iolas lessei (Bernardi, 1964) présent en Arménie.
+ Iolana iolas debilitata (Schultz, 1905) ou Iolana debilitata (Schultz, 1905) l'Azuré d'Oranie présent au Maroc et en Algérie.
+et autres
+L’azuré d'Oranie  est parfois considéré comme une espèce Iolana debilitata parfois comme Iolana iolas debilitata une sous-espèce.
 </t>
         </is>
       </c>
@@ -601,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_baguenaudier</t>
+          <t>Azuré_du_baguenaudier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,17 +632,231 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon qui présente un dimorphisme sexuel : le dessus du mâle est bleu violet, celui de la femelle est plus foncé marron gris suffusé de bleu.
+Le revers est clair, gris clair à beige clair un peu suffusé de bleu, les ailes sont ornées d'une ligne de points noirs et d'une ligne submarginale de petites taches blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont pondus dans la gousse du baguenaudier et c'est dans cette gousse que se développe la larve.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de mai à juillet.
+La larve est soignée par les fourmis Camponotus cruentatus, Tapinoma erraticum et autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Colutea  : Colutea cilicica et Colutea arborescens,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Afrique du Nord, dans l'est de l'Espagne, le sud de la France, en Italie, Suisse,  Autriche, Slovaquie, Balkans et Grèce, en Asie Mineure, Iran, Irak et Transcaucasie[2].
-Il est présent dans dix départements du sud-est de la France métropolitaine[4]. D'autres sources ne le donnent présent que dans trois départements, Vendée,  Vaucluse et Bouches-du-Rhône[5].
-Biotope
-Il habite des lieux secs broussailleux[3].
-Protection
-Espèce menacée inscrite dans la liste rouge au niveau européen et en France, I. iolas est classé dans la catégorie A2 au programme national de restauration.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Afrique du Nord, dans l'est de l'Espagne, le sud de la France, en Italie, Suisse,  Autriche, Slovaquie, Balkans et Grèce, en Asie Mineure, Iran, Irak et Transcaucasie.
+Il est présent dans dix départements du sud-est de la France métropolitaine. D'autres sources ne le donnent présent que dans trois départements, Vendée,  Vaucluse et Bouches-du-Rhône.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite des lieux secs broussailleux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Azuré_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_baguenaudier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce menacée inscrite dans la liste rouge au niveau européen et en France, I. iolas est classé dans la catégorie A2 au programme national de restauration.
 </t>
         </is>
       </c>
